--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692651.7739149784</v>
+        <v>723451.5160534623</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12402915.60941508</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240764</v>
+        <v>6034514.474368499</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9718742.18639051</v>
+        <v>9568806.060069285</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>79.2871280513712</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>219.4811435328747</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>138.6293406866758</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646393</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>104.9715426764091</v>
       </c>
       <c r="Y4" t="n">
-        <v>127.0592425191965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>324.3682440988504</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>140.6544962572362</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>21.27014120655588</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>125.2942148585654</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>352.9769185949617</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>7.692555326864293</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>143.2166920488291</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1127311237315</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>99.50249420969755</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>69.91821722819687</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>14.54306763486818</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>35.04085089109403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>330.1313724127971</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>37.48839635041291</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>97.54448884450801</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,16 +1821,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>95.33658422047249</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301.2402584038916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>72.26185188621326</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.2486892180379</v>
+        <v>70.82764119510665</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>69.37663430902828</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>158.1294407168345</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>190.0358734112044</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>153.0471678767959</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.1597475789921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,19 +2532,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>238.7680309504227</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>62.4991231472005</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047992029</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.8263884981905</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>65.72456219185311</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>15.38185492767447</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5271899898256</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>62.04448695139062</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>2.003425705032889</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>53.92511345634412</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249708</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>70.82764119510665</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>188.219639431212</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.257203903026578</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>217.5421890636007</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>212.7888692447043</v>
       </c>
       <c r="H38" t="n">
-        <v>79.03187764303605</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>147.0633545968148</v>
+        <v>61.08019102731641</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>98.56193867130375</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>196.5107055231789</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>114.4746605491563</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>109.7846361579109</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>142.5539553534411</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>44.43095863957995</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>91.11971635671371</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>209.5675193320716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1373.778212738966</v>
+        <v>1606.372544995229</v>
       </c>
       <c r="C2" t="n">
-        <v>1373.778212738966</v>
+        <v>1237.410028054818</v>
       </c>
       <c r="D2" t="n">
-        <v>1373.778212738966</v>
+        <v>1237.410028054818</v>
       </c>
       <c r="E2" t="n">
-        <v>987.9899601407219</v>
+        <v>851.6217754565732</v>
       </c>
       <c r="F2" t="n">
-        <v>577.0040553511144</v>
+        <v>440.6358706669656</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>440.6358706669656</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362831</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816094</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872926</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000046</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.778212738966</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.778212738966</v>
+        <v>1686.460553127927</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966393</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155124</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057902</v>
+        <v>67.92677704067708</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145208</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380236</v>
+        <v>451.184214979408</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694952</v>
+        <v>660.7750882322387</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>924.714619727726</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1210.048490161059</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>1621.182402866227</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>1543.309735648993</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>1347.691013115833</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>1347.691013115833</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1112.53890488409</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>858.3015481558884</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>650.4500479503556</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>442.6897491854017</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451.9049743189132</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="C4" t="n">
-        <v>451.9049743189132</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>35.96388306992289</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>683.8627305947082</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>429.1782423888213</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>139.7610723518607</v>
       </c>
       <c r="X4" t="n">
-        <v>580.2476435302228</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="Y4" t="n">
-        <v>451.9049743189132</v>
+        <v>33.72921106255855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.907945722349</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.945428781938</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6797301751872</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8914775769429</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>51.24678656800312</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786471</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.507785786471</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="6">
@@ -4628,49 +4628,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>483.0441129489466</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>641.3764301283679</v>
+        <v>177.806599556453</v>
       </c>
       <c r="C7" t="n">
-        <v>641.3764301283679</v>
+        <v>177.806599556453</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>177.806599556453</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>177.806599556453</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>177.806599556453</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063346</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W7" t="n">
-        <v>869.3659810263853</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X7" t="n">
-        <v>641.3764301283679</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.3764301283679</v>
+        <v>359.4550643866927</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>897.568857462134</v>
+        <v>474.7217947496378</v>
       </c>
       <c r="C8" t="n">
-        <v>528.6063405217222</v>
+        <v>474.7217947496378</v>
       </c>
       <c r="D8" t="n">
-        <v>528.6063405217222</v>
+        <v>474.7217947496378</v>
       </c>
       <c r="E8" t="n">
-        <v>528.6063405217222</v>
+        <v>474.7217947496378</v>
       </c>
       <c r="F8" t="n">
-        <v>117.6204357321147</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4819,37 +4819,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y8" t="n">
-        <v>1254.111199477247</v>
+        <v>861.3216348137596</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>677.9225319085494</v>
+        <v>344.6490100063445</v>
       </c>
       <c r="C10" t="n">
-        <v>508.9863489806426</v>
+        <v>344.6490100063445</v>
       </c>
       <c r="D10" t="n">
-        <v>358.8697095683068</v>
+        <v>344.6490100063445</v>
       </c>
       <c r="E10" t="n">
-        <v>210.9566159859137</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9566159859137</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387892</v>
+        <v>793.431140047892</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387892</v>
+        <v>793.431140047892</v>
       </c>
       <c r="X10" t="n">
-        <v>859.5709967387892</v>
+        <v>565.4415891498746</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.5709967387892</v>
+        <v>344.6490100063445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796247</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C11" t="n">
-        <v>552.807938939213</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>452.3003690304276</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218339</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
         <v>66.51211643218339</v>
@@ -5080,13 +5080,13 @@
         <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2354.119579604089</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919558</v>
+        <v>1980.653821343009</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943746</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="12">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.1346335501037</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D13" t="n">
         <v>529.0179941377679</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484844</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610487</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V13" t="n">
-        <v>1189.344382730594</v>
+        <v>1450.843444452131</v>
       </c>
       <c r="W13" t="n">
-        <v>899.9272126936338</v>
+        <v>1161.42627441517</v>
       </c>
       <c r="X13" t="n">
-        <v>899.9272126936338</v>
+        <v>933.4367235171526</v>
       </c>
       <c r="Y13" t="n">
-        <v>679.1346335501037</v>
+        <v>712.6441443736225</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1626.299101484275</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C14" t="n">
-        <v>1292.833068744076</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="D14" t="n">
-        <v>934.5673701373257</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>401.9627838440353</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>104.3791834528025</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2755.806928794323</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2403.038273524209</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X14" t="n">
-        <v>2403.038273524209</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y14" t="n">
-        <v>2012.898941548397</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.2814163499066</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="C16" t="n">
-        <v>528.3452334219998</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="D16" t="n">
-        <v>528.3452334219998</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="E16" t="n">
-        <v>380.4321398396066</v>
+        <v>311.931850641718</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>165.0419031438077</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
         <v>315.6219318279954</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.712011221694</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.722460323676</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.9298811801464</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C17" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539436</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269322</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.778044008242</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y17" t="n">
-        <v>1624.63871203243</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C19" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5718,7 +5718,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1664.678443125551</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C20" t="n">
-        <v>1295.71592618514</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D20" t="n">
-        <v>937.4502275783891</v>
+        <v>1023.012981614818</v>
       </c>
       <c r="E20" t="n">
-        <v>551.6619749801448</v>
+        <v>637.2247290165733</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>226.2388242269657</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W20" t="n">
-        <v>2424.744041450753</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X20" t="n">
-        <v>2051.278283189673</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y20" t="n">
-        <v>2051.278283189673</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5837,16 +5837,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.3679798527295</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124868</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>872.3234075408147</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>680.3679798527295</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1278.332234886374</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C23" t="n">
-        <v>909.3697179459625</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D23" t="n">
-        <v>909.3697179459625</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5814653477182</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>1904.487375535336</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y23" t="n">
-        <v>1664.932074950496</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>700.1577228956174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C25" t="n">
-        <v>531.2215399677106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D25" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1169.327103036486</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>928.1472737936348</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>700.1577228956174</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>700.1577228956174</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1565.440264581601</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1196.477747641189</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>838.2120490344385</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6226,16 +6226,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>2678.274518176916</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W26" t="n">
-        <v>2325.505862906802</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X26" t="n">
-        <v>1952.040104645722</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
-        <v>1952.040104645722</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>1134.594421205412</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>1134.594421205412</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1308.370295943747</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1308.370295943747</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>950.1045973369969</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,13 +6487,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
         <v>2755.806928794324</v>
@@ -6502,13 +6502,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
@@ -6542,46 +6542,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.4145879000976</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>505.4784049721907</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>355.3617655598549</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>207.4486719774618</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>207.4486719774618</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6651,22 +6651,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1735.608663915319</v>
+        <v>1672.93746497452</v>
       </c>
       <c r="U31" t="n">
-        <v>1446.505797040963</v>
+        <v>1383.834598100164</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.821308835076</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="W31" t="n">
-        <v>902.4041387981149</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X31" t="n">
-        <v>674.4145879000976</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.4145879000976</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1252.833343223196</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="C32" t="n">
-        <v>883.8708262827847</v>
+        <v>1257.336584543864</v>
       </c>
       <c r="D32" t="n">
-        <v>525.6051276760343</v>
+        <v>1257.336584543864</v>
       </c>
       <c r="E32" t="n">
-        <v>525.6051276760343</v>
+        <v>871.5483319456198</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>460.5624271560122</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,13 +6724,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
         <v>2755.806928794324</v>
@@ -6739,13 +6739,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W32" t="n">
-        <v>2403.03827352421</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X32" t="n">
-        <v>2029.57251526313</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.433183287318</v>
+        <v>2012.898941548397</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
         <v>2407.411984886741</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,10 +6879,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
         <v>1735.608663915319</v>
@@ -6891,19 +6891,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610488</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046014</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676408</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696235</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.8553933260934</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038044</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490882</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926375</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030299</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
@@ -6940,7 +6940,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6952,7 +6952,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2999.98669450733</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2668.92380716376</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2668.92380716376</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2668.92380716376</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102166</v>
+        <v>2278.784475187948</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218343</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610489</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046018</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676413</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696239</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.8553933260938</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1712.341567565139</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C38" t="n">
-        <v>1343.379050624727</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D38" t="n">
-        <v>985.1133520179767</v>
+        <v>1006.819119944519</v>
       </c>
       <c r="E38" t="n">
-        <v>599.3250994197324</v>
+        <v>621.030867346275</v>
       </c>
       <c r="F38" t="n">
-        <v>188.3391946301248</v>
+        <v>621.030867346275</v>
       </c>
       <c r="G38" t="n">
-        <v>188.3391946301248</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7192,10 +7192,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7210,16 +7210,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W38" t="n">
-        <v>2862.546497866152</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X38" t="n">
-        <v>2489.080739605072</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y38" t="n">
-        <v>2098.941407629261</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215.0609594592691</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="C40" t="n">
-        <v>215.0609594592691</v>
+        <v>573.1289595786776</v>
       </c>
       <c r="D40" t="n">
-        <v>215.0609594592691</v>
+        <v>423.0123201663419</v>
       </c>
       <c r="E40" t="n">
-        <v>215.0609594592691</v>
+        <v>275.0992265839487</v>
       </c>
       <c r="F40" t="n">
-        <v>215.0609594592691</v>
+        <v>128.2092790860384</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368017</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1134.908724368017</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>845.4915543310562</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X40" t="n">
-        <v>617.5020034330389</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y40" t="n">
-        <v>396.7094242895088</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1887.813801820607</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C41" t="n">
-        <v>1518.851284880195</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066533</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796419</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2277.953133796419</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>1887.813801820607</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7496,40 +7496,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218345</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218345</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218345</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7596,25 +7596,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T43" t="n">
-        <v>1530.147236421175</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.044369546818</v>
+        <v>1504.803903538869</v>
       </c>
       <c r="V43" t="n">
-        <v>986.3598813409312</v>
+        <v>1250.119415332982</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>960.7022452960215</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>732.7126943980041</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>732.7126943980041</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1405.526882613611</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C44" t="n">
-        <v>1036.5643656732</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D44" t="n">
         <v>892.5704713767946</v>
@@ -7648,22 +7648,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653545</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X44" t="n">
-        <v>2182.266054653545</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y44" t="n">
-        <v>1792.126722677733</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7730,10 +7730,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218343</v>
@@ -7809,16 +7809,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046023</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676417</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566616</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>147.3598584166011</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>211.0329012241567</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>84.94186588374728</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>303.4467136121094</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>192.0665592400793</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>27.90384296319155</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22682,7 +22682,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22713,19 +22713,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.738112712628</v>
       </c>
       <c r="Y4" t="n">
-        <v>91.52541083289829</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>82.50780164286107</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>208.5864724601769</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>127.3453318116565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>41.0123851862388</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.75692306851892</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>399.1834904148471</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3.217270597740082</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.19386892107272</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23232,10 +23232,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.1805474109854</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>279.3227514892162</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>165.2889125470691</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>217.096792432734</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>35.14151935821042</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.088533422513038</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>68.48131941452021</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>191.1864141161185</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.49358325958895</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>297.4692487922558</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.335964134056923</v>
+        <v>147.7570121569881</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>337.4994114326831</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>252.792284936619</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569882</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.5487799408904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>229.6866737866847</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>149.0781910770615</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.75496738616826</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>319.4312469250613</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>290.3129182374927</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.7582648539043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>317.0092794716275</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>366.5485151445873</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>26.49861826920261</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>157.5044623247786</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>404.8726200366785</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.9966121971094</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696645</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>75.60632145146252</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>222.7020862222414</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>241.7379680558754</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.042464288494102</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>198.1328564087491</v>
       </c>
       <c r="H38" t="n">
-        <v>215.5758867442844</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>18.96245366221345</v>
+        <v>104.9456172317118</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>284.1719029921768</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>158.1723360975041</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>105.0742887270129</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>176.427202047702</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>212.1290862672418</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>341.8069800164736</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>88.71226382522359</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.14213605696554</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>780582.8535323237</v>
+        <v>630646.7272110994</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>780582.853532324</v>
+        <v>780582.8535323236</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>780582.8535323237</v>
+        <v>780582.853532324</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860422.0189724618</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860422.0189724622</v>
+        <v>860422.0189724623</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.0189724622</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.0189724622</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.0189724622</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.0189724618</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860422.0189724622</v>
+        <v>860422.018972462</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943086</v>
+        <v>247001.9304687609</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
@@ -26325,16 +26325,16 @@
         <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="H2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="H2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="I2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709205</v>
@@ -26346,16 +26346,16 @@
         <v>340997.0989709207</v>
       </c>
       <c r="M2" t="n">
+        <v>340997.0989709208</v>
+      </c>
+      <c r="N2" t="n">
         <v>340997.0989709206</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709207</v>
       </c>
       <c r="O2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>863984.3294200042</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>238369.8891383883</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171902</v>
+        <v>182072.9798171899</v>
       </c>
       <c r="F3" t="n">
         <v>3.594527697714511e-10</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>110313.0712406508</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>56355.79215856567</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341504</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16175.59256035159</v>
+        <v>13493.20237651353</v>
       </c>
       <c r="C4" t="n">
-        <v>16175.59256035159</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="D4" t="n">
-        <v>16175.59256035157</v>
+        <v>16175.59256035158</v>
       </c>
       <c r="E4" t="n">
         <v>8550.51517206688</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>75611.38525919239</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-923120.980803699</v>
+        <v>-706904.5813592661</v>
       </c>
       <c r="C6" t="n">
-        <v>191630.8027722207</v>
+        <v>-42034.36991646523</v>
       </c>
       <c r="D6" t="n">
-        <v>191630.8027722207</v>
+        <v>196335.5192219229</v>
       </c>
       <c r="E6" t="n">
-        <v>72591.07412220926</v>
+        <v>75719.64449046456</v>
       </c>
       <c r="F6" t="n">
-        <v>254664.053939399</v>
+        <v>257792.6243076541</v>
       </c>
       <c r="G6" t="n">
-        <v>254664.0539393994</v>
+        <v>257792.6243076544</v>
       </c>
       <c r="H6" t="n">
-        <v>254664.0539393993</v>
+        <v>257792.6243076543</v>
       </c>
       <c r="I6" t="n">
-        <v>254664.0539393993</v>
+        <v>257792.6243076543</v>
       </c>
       <c r="J6" t="n">
-        <v>87058.87612941675</v>
+        <v>147479.5530670034</v>
       </c>
       <c r="K6" t="n">
-        <v>254664.0539393993</v>
+        <v>201436.8321490886</v>
       </c>
       <c r="L6" t="n">
-        <v>254664.0539393996</v>
+        <v>257792.6243076544</v>
       </c>
       <c r="M6" t="n">
-        <v>207111.7881459844</v>
+        <v>210240.3585142397</v>
       </c>
       <c r="N6" t="n">
-        <v>254664.0539393993</v>
+        <v>257792.6243076543</v>
       </c>
       <c r="O6" t="n">
-        <v>254664.0539393995</v>
+        <v>257792.6243076544</v>
       </c>
       <c r="P6" t="n">
-        <v>254664.0539393995</v>
+        <v>257792.6243076543</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>749.98095649761</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26773,13 +26773,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.98095649761</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>184.0839356199291</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757584</v>
       </c>
       <c r="F3" t="n">
         <v>4.547473508864641e-13</v>
@@ -26992,10 +26992,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>218.9696938180569</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>190.8166233022533</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>421.6151382819815</v>
+      </c>
+      <c r="K4" t="n">
+        <v>218.9696938180569</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.8166233022537</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.584832100039</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>218.9696938180569</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065836</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>270.0094465683979</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>65.93752551686947</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>373.1786946453892</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>546.4575832202797</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>201.4225882146019</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859626</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
